--- a/Township_List_Full.xlsx
+++ b/Township_List_Full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristinamanysheva/Documents/Research/South_africa_segregation/Townships/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93AAD46-60D4-0543-8A25-1D31C629B8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F53FF4-5501-3D4E-9A57-131EC5A0FBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8066,9 +8066,6 @@
     <t>List of cities is available here</t>
   </si>
   <si>
-    <t xml:space="preserve">We use cities of more than 1,000,000 population. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The closest large to a Township </t>
   </si>
   <si>
@@ -8079,6 +8076,9 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use cities of more than 100,000 population. </t>
   </si>
 </sst>
 </file>
@@ -8257,6 +8257,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8266,7 +8267,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8604,8 +8604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8639,10 +8639,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>2443</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -8731,7 +8731,7 @@
         <v>2438</v>
       </c>
       <c r="C18" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -8750,10 +8750,10 @@
         <v>2197</v>
       </c>
       <c r="B20" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>2441</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -8906,29 +8906,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>2193</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22" t="s">
         <v>2203</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -39028,7 +39028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>2352</v>
       </c>
@@ -39100,7 +39100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>2362</v>
       </c>
@@ -39144,18 +39144,18 @@
       <c r="A52" s="19" t="s">
         <v>2428</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="22"/>
+      <c r="B53" s="23"/>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>2429</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="23"/>
     </row>
     <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
@@ -39173,7 +39173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>2376</v>
       </c>
